--- a/data/MassBay/NewFormat/WN203_DIC_MIT_4May2020.xlsx
+++ b/data/MassBay/NewFormat/WN203_DIC_MIT_4May2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIBBY\Documents\MWRA\Surveys\Survey Reports\WN203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/becklabash/Desktop/SeaGrant/data/MassBay/NewFormat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70B2B65F-CC25-4851-9C0C-E7C2A51BA723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B483924F-DDD4-2A4A-8A01-DD0EC780C013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4780" windowWidth="33600" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8_DIC_MIT_Profile_UP_Event_Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="36">
   <si>
     <t>EVENT_ID</t>
   </si>
@@ -103,16 +103,7 @@
     <t>F10</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>pH displayed erratic readings at the bottom depth in upcast profile.</t>
-  </si>
-  <si>
     <t>F15</t>
-  </si>
-  <si>
-    <t>pH displayed erratic readings on the upcast profile. All upcast data flagged.</t>
   </si>
   <si>
     <t>N07</t>
@@ -145,8 +136,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -323,10 +314,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,32 +660,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -758,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="3">
-        <v>43955.360914351899</v>
+        <v>43955.360914351855</v>
       </c>
       <c r="D2" s="6">
         <v>42.1699409</v>
@@ -806,7 +797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -862,7 +853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -918,7 +909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -974,7 +965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1076,15 +1067,15 @@
       <c r="O7" s="4">
         <v>0.94142168760299705</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P7" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1136,11 +1127,9 @@
       <c r="Q8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1192,11 +1181,9 @@
       <c r="Q9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1248,11 +1235,9 @@
       <c r="Q10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1304,16 +1289,14 @@
       <c r="Q11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3">
         <v>43955.406076388899</v>
@@ -1354,20 +1337,20 @@
       <c r="O12" s="4">
         <v>0.98917543888091997</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="2" t="s">
+      <c r="P12" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C13" s="3">
         <v>43955.4069212963</v>
@@ -1408,20 +1391,20 @@
       <c r="O13" s="4">
         <v>0.93046581745147705</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="2" t="s">
+      <c r="P13" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="3">
         <v>43955.407488425903</v>
@@ -1462,20 +1445,20 @@
       <c r="O14" s="4">
         <v>0.91180860996246305</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="2" t="s">
+      <c r="P14" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C15" s="3">
         <v>43955.4082291667</v>
@@ -1516,20 +1499,20 @@
       <c r="O15" s="4">
         <v>0.74123561382293701</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="2" t="s">
+      <c r="P15" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C16" s="3">
         <v>43955.408842592602</v>
@@ -1570,20 +1553,20 @@
       <c r="O16" s="4">
         <v>0.70043241977691695</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P16" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3">
         <v>43955.425856481503</v>
@@ -1624,20 +1607,20 @@
       <c r="O17" s="4">
         <v>0.96651190519332897</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P17" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
         <v>43955.426516203697</v>
@@ -1678,20 +1661,20 @@
       <c r="O18" s="4">
         <v>0.55833184719085704</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P18" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
         <v>43955.427118055602</v>
@@ -1732,20 +1715,20 @@
       <c r="O19" s="4">
         <v>0.78742873668670699</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P19" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3">
         <v>43955.427650463003</v>
@@ -1786,20 +1769,20 @@
       <c r="O20" s="4">
         <v>0.71373337507247903</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P20" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3">
         <v>43955.428252314799</v>
@@ -1840,20 +1823,20 @@
       <c r="O21" s="4">
         <v>0.89904290437698398</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P21" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3">
         <v>43955.445243055598</v>
@@ -1900,16 +1883,14 @@
       <c r="Q22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3">
         <v>43955.445914351898</v>
@@ -1956,16 +1937,14 @@
       <c r="Q23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <v>43955.4464351852</v>
@@ -2012,16 +1991,14 @@
       <c r="Q24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3">
         <v>43955.447037037004</v>
@@ -2068,16 +2045,14 @@
       <c r="Q25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3">
         <v>43955.447488425903</v>
@@ -2124,16 +2099,14 @@
       <c r="Q26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3">
         <v>43955.465624999997</v>
@@ -2180,16 +2153,14 @@
       <c r="Q27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3">
         <v>43955.466203703698</v>
@@ -2236,19 +2207,17 @@
       <c r="Q28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3">
-        <v>43955.4668171296</v>
+        <v>43955.466817129629</v>
       </c>
       <c r="D29" s="6">
         <v>42.387142099999998</v>
@@ -2292,16 +2261,14 @@
       <c r="Q29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C30" s="3">
         <v>43955.467337962997</v>
@@ -2348,16 +2315,14 @@
       <c r="Q30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3">
         <v>43955.467881944402</v>
@@ -2404,16 +2369,14 @@
       <c r="Q31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>43955.500011574099</v>
@@ -2460,16 +2423,14 @@
       <c r="Q32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3">
         <v>43955.500949074099</v>
@@ -2516,16 +2477,14 @@
       <c r="Q33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>43955.502187500002</v>
@@ -2572,16 +2531,14 @@
       <c r="Q34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>43955.503009259301</v>
@@ -2628,16 +2585,14 @@
       <c r="Q35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>43955.503634259301</v>
@@ -2684,16 +2639,14 @@
       <c r="Q36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3">
         <v>43955.528078703697</v>
@@ -2734,20 +2687,20 @@
       <c r="O37" s="4">
         <v>1.0914380550384499</v>
       </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P37" s="5">
+        <v>-9.9999999999999995E+33</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
         <v>43955.5288657407</v>
@@ -2798,12 +2751,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3">
         <v>43955.529641203699</v>
@@ -2854,12 +2807,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
         <v>43955.530358796299</v>
@@ -2910,12 +2863,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>43955.531018518501</v>
@@ -2966,12 +2919,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42" s="3">
         <v>43955.550717592603</v>
@@ -3022,12 +2975,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C43" s="3">
         <v>43955.551261574103</v>
@@ -3078,12 +3031,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" s="3">
         <v>43955.552175925899</v>
@@ -3134,12 +3087,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C45" s="3">
         <v>43955.552881944401</v>
@@ -3190,12 +3143,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C46" s="3">
         <v>43955.553321759297</v>
@@ -3246,12 +3199,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C47" s="3">
         <v>43955.573865740698</v>
@@ -3302,12 +3255,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="3">
         <v>43955.574398148201</v>
@@ -3358,12 +3311,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49" s="3">
         <v>43955.574861111098</v>
@@ -3414,12 +3367,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C50" s="3">
         <v>43955.575416666703</v>
@@ -3470,12 +3423,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C51" s="3">
         <v>43955.5758796296</v>
@@ -3526,12 +3479,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C52" s="3">
         <v>43955.606354166703</v>
@@ -3582,12 +3535,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C53" s="3">
         <v>43955.607106481497</v>
@@ -3638,12 +3591,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C54" s="3">
         <v>43955.607719907399</v>
@@ -3694,12 +3647,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C55" s="3">
         <v>43955.608414351896</v>
@@ -3750,12 +3703,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C56" s="3">
         <v>43955.608946759297</v>
